--- a/Алгебраические алгоритмы.xlsx
+++ b/Алгебраические алгоритмы.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>Возведение в степень</t>
   </si>
@@ -291,8 +291,73 @@
 (кв корень и только простые делители)</t>
   </si>
   <si>
-    <t>Решето Эратосфена 
-(с сокращением длины массива)</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Решето Эратосфена 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t> ln ln </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Решето Эратосфена 
@@ -311,10 +376,10 @@
     <t>2.059503998607397</t>
   </si>
   <si>
-    <t>0.2523140013217926</t>
-  </si>
-  <si>
-    <t>0.33166199922561646</t>
+    <t>0.3827360272407532</t>
+  </si>
+  <si>
+    <t>0.3559309244155884</t>
   </si>
   <si>
     <t>0.17047700006514788</t>
@@ -329,10 +394,10 @@
     <t>0.24882499873638153</t>
   </si>
   <si>
-    <t>0.13383600115776062</t>
-  </si>
-  <si>
-    <t>0.15041600167751312</t>
+    <t>0.18162798881530762</t>
+  </si>
+  <si>
+    <t>0.14185094833374023</t>
   </si>
   <si>
     <t>0.15358499996364117</t>
@@ -347,10 +412,10 @@
     <t>0.21569299697875977</t>
   </si>
   <si>
-    <t>0.10538499057292938</t>
-  </si>
-  <si>
-    <t>0.11834900081157684</t>
+    <t>0.1655609905719757</t>
+  </si>
+  <si>
+    <t>0.1254580020904541</t>
   </si>
   <si>
     <t>0.16124200029298663</t>
@@ -365,10 +430,10 @@
     <t>0.23245399817824364</t>
   </si>
   <si>
-    <t>0.10942700505256653</t>
-  </si>
-  <si>
-    <t>0.11145399510860443</t>
+    <t>0.1675190031528473</t>
+  </si>
+  <si>
+    <t>0.1232900619506836</t>
   </si>
   <si>
     <t>0.1490209996700287</t>
@@ -383,10 +448,10 @@
     <t>0.2259479984641075</t>
   </si>
   <si>
-    <t>0.10500599443912506</t>
-  </si>
-  <si>
-    <t>0.11042100191116333</t>
+    <t>0.1688700020313263</t>
+  </si>
+  <si>
+    <t>0.12900006771087646</t>
   </si>
   <si>
     <t>0.12319199973717332</t>
@@ -401,10 +466,10 @@
     <t>0.18985899910330772</t>
   </si>
   <si>
-    <t>0.09473100304603577</t>
-  </si>
-  <si>
-    <t>0.10368400812149048</t>
+    <t>0.15247398614883423</t>
+  </si>
+  <si>
+    <t>0.126816987991333</t>
   </si>
   <si>
     <t>0.21680899988859892</t>
@@ -419,10 +484,10 @@
     <t>0.8497669994831085</t>
   </si>
   <si>
-    <t>0.2544559985399246</t>
-  </si>
-  <si>
-    <t>0.22397398948669434</t>
+    <t>0.17399901151657104</t>
+  </si>
+  <si>
+    <t>0.16235196590423584</t>
   </si>
   <si>
     <t>2.585382000077516</t>
@@ -437,10 +502,10 @@
     <t>0.7659340016543865</t>
   </si>
   <si>
-    <t>2.6648550033569336</t>
-  </si>
-  <si>
-    <t>4.63570599257946</t>
+    <t>0.312173992395401</t>
+  </si>
+  <si>
+    <t>0.5251560211181641</t>
   </si>
   <si>
     <t>22.92666899971664</t>
@@ -455,10 +520,10 @@
     <t>3.907226998358965</t>
   </si>
   <si>
-    <t>15.055500999093056</t>
-  </si>
-  <si>
-    <t>40.77247799932957</t>
+    <t>2.7429239749908447</t>
+  </si>
+  <si>
+    <t>4.183529019355774</t>
   </si>
   <si>
     <t>1356.2815590002574</t>
@@ -473,10 +538,10 @@
     <t>6.842096999287605</t>
   </si>
   <si>
-    <t>927.7290289998055</t>
-  </si>
-  <si>
-    <t>2414.262930005789</t>
+    <t>7.303929001092911</t>
+  </si>
+  <si>
+    <t>10.92786192893982</t>
   </si>
   <si>
     <t>119679.08520699991</t>
@@ -491,10 +556,10 @@
     <t>59.52156100049615</t>
   </si>
   <si>
-    <t>212364.29234400392</t>
-  </si>
-  <si>
-    <t>197199.75195799768</t>
+    <t>61.02783399820328</t>
+  </si>
+  <si>
+    <t>65.80867004394531</t>
   </si>
   <si>
     <t>6229.4540399997495</t>
@@ -506,6 +571,12 @@
     <t>988.8197299987078</t>
   </si>
   <si>
+    <t>887.3239850103855</t>
+  </si>
+  <si>
+    <t>451.674103975296</t>
+  </si>
+  <si>
     <t>182169.91671100026</t>
   </si>
   <si>
@@ -515,7 +586,19 @@
     <t>21413.676534999162</t>
   </si>
   <si>
+    <t>8503.907659024</t>
+  </si>
+  <si>
+    <t>JavaScript heap out of memory</t>
+  </si>
+  <si>
     <t>482855.1385060027</t>
+  </si>
+  <si>
+    <t>Error JavaScript heap out of memory</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>28243.999367002398</t>
@@ -528,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -547,6 +630,19 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -733,7 +829,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -801,6 +897,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2769,7 +2868,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
@@ -3065,9 +3164,11 @@
         <v>161</v>
       </c>
       <c r="F14" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="G14" t="s" s="21">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="11">
@@ -3077,18 +3178,20 @@
         <v>68</v>
       </c>
       <c r="C15" t="s" s="21">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s" s="21">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s" s="13">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>167</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="11">
@@ -3102,12 +3205,14 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" t="s" s="13">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>170</v>
+      </c>
+      <c r="G16" t="s" s="21">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="11">
@@ -3121,12 +3226,12 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" t="s" s="13">
-        <v>166</v>
-      </c>
-      <c r="F17" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="G17" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" t="s" s="21">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
